--- a/tests/data/sample_pfr_v1.xlsx
+++ b/tests/data/sample_pfr_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/msi/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD3BD51-E015-1140-8A13-189348A88479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2DD7D9-D04C-2243-965D-E338BD01C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="460" windowWidth="28100" windowHeight="15560" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
+    <workbookView xWindow="5420" yWindow="1560" windowWidth="28100" windowHeight="15560" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,7 +889,7 @@
         <v>26</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>0</v>
